--- a/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560369/JX560369_mutations.xlsx
+++ b/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560369/JX560369_mutations.xlsx
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45438.89334769059</v>
+        <v>45441.8335967261</v>
       </c>
     </row>
     <row r="3">
@@ -545,7 +545,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['2039_2041del']</t>
+          <t>['2224_2302del', '2109_2237instgatatttgcagctcttagcctcgctatacggtccgtggagttgatagtacatgtggtgaatatcgtgatgtatatagctagcatacttacaacagcgttctgagtgtggcctccacgtctccatgta', '2153_2208instaccgcgcaggtgtcgaagacctctgctcctactcgcggccacgtcgcactttaa', '2114_2230insgtgagttcgcgttgcggtgatatggctcatggtggttgaaaccgccgtcccttttcttcgtgcgccccatagcccggcgttatgtgttctaacgttggagtcgtagcaaagacgag', '2059_2192del']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -568,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45438.89334771952</v>
+        <v>45441.83359675817</v>
       </c>
     </row>
     <row r="4">
@@ -593,7 +593,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['687_691del']</t>
+          <t>['609_720insgctcccccggctaatgttggaactgtggcaaccttgaagtacataagtagtcaagcgcatctgtctatctcagtgcaggtatcaagctccacagcgttaggagtccgataa', '641_710insacccaaatgggcgtgactgagctcgcgcattagcgtgcagaacttacggatgacctcacatgtgccaag', '628_764del', '628_691del', '639_669del']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -611,16 +611,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45438.89334774266</v>
+        <v>45441.83359678712</v>
       </c>
     </row>
     <row r="5">
@@ -641,7 +641,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['4302a&gt;t']</t>
+          <t>['4301_4311del', '4310_4343insgcgattccttagcaccccacggtgccgttagcg', '4291_4418del', '4302_4380del', '4306_4338inscgagcgtcataacctcgggcaagggggtctat']</t>
         </is>
       </c>
       <c r="E5" t="b">
@@ -654,16 +654,16 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45438.89334788718</v>
+        <v>45441.83359692274</v>
       </c>
     </row>
     <row r="6">
@@ -674,12 +674,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['2216_2219instca']</t>
+          <t>['2188_2322insctagatctacaggggctcaaatattatcaattctgaaacgcgcgagttttggtgacgcactttctggcatcagtgtatctggttggcgtaatggtgtacatggatctctggcccacgtttagatgaccgatgcg', '2209_2333del', '2245_2255instgcgcagtga', '2018_2080del', '2049_2194del']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['605_606del']</t>
+          <t>['641_696del', '649_745del', '619_681insaaaatgcctccacgcgaatggcctctacaaggcaatgtcttatcatgactgaatatgcacca', '671_820insagtgagttgccggtgggctggcacccgtcagattttcccgagtgccatgcttagctctttaggagccctacttaggaccatctgcctgagcggaactcgtgtaataatgcagtccggccgctgaacactttccgctttcccggagtggt', '657_790del']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -697,16 +697,16 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45438.89334791032</v>
+        <v>45441.83359694012</v>
       </c>
     </row>
     <row r="7">
@@ -717,7 +717,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['2064_2067instca']</t>
+          <t>['2155_2265del', '2118_2158inscagatgtggttgggtcgctgttaacgcctcgttgtaagta', '2106_2200instccccagaatttattcgcgtccgagtgtacgctcaccttcggtcgatagcttcatatacgcattgatgcggcatcccagggctacgtaggtccc', '2094_2208del', '2093_2225del']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['4287_4288insg']</t>
+          <t>['4258_4375inscaggtcggctattttatgagcgtaatcggtgtatggggagtttgaacctatatcgccattctgcagcttaacctacccacggggatcgtaggctcacaaggataagatagttacccc', '4279_4297inscgcttgtcaggggttagc', '4352_4434instcgtatgtcccaccacccgaatagttcgaattgtttttttgcatctttggtcctggcacggaatacaggtttacgacacatc', '4299_4386del', '4278_4290inscaccggctatga']</t>
         </is>
       </c>
       <c r="E7" t="b">
@@ -740,16 +740,16 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45438.89334793347</v>
+        <v>45441.83359696964</v>
       </c>
     </row>
     <row r="8">
@@ -765,12 +765,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['692t&gt;c']</t>
+          <t>['647_797inscactcaagacgggcccaaataccgtcaggctgagctgtgccatagtctgctgtattccagccaatcgcagtgtgttgtctgctcgagtaacagtaatccatagcgtcatctggattgaccacatcagcaccgcactggatcgcgggtgtt', '613_655del', '687_722del', '701_840instgtcgcacacggttcacctaccaacgaccatcaccttactatgcaccgcctgtatcgcgaactggatacggtgcaattcggcggcaatcaaattgtcctgtcctaagggtctgttgtttgtcagtgacgccccatcgta', '635_701insgccacaacggagttaaacctaacgcgaatgatggtgcaacccttgaagataaggactttaagtgcg']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['4347t&gt;a']</t>
+          <t>['4286_4426del', '4329_4416del', '4325_4382del', '4323_4350insagcgtcacgtagaatctatggactcta', '4349_4404insgcttatacgaacaataacgcccttcacgtcgggagccagggaatccgagtcgcgt']</t>
         </is>
       </c>
       <c r="E8" t="b">
@@ -783,16 +783,16 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45438.89334795662</v>
+        <v>45441.83359700093</v>
       </c>
     </row>
     <row r="9">
@@ -803,17 +803,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['2180_2181insa']</t>
+          <t>['2123_2235del', '2082_2187inscctgcgagaggctaggacttggtttttgttttccgactctgttattctatcgacgttaaatgataaataattatcaacgcctgggtctgcactactcatttactt', '2252_2366instctactccgtagcatcacagaggactgctgcagcattcgctgcgtgcgcgaagtaatctccaactggctcgaggcaatatcactccctcagggtgtttcgaggaccgtgataag', '2160_2186del', '2065_2113insaatccttagaacttcaaacatttaccttatcctgaaacatgtacctct']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['634_638inscgat']</t>
+          <t>['668_749insatcacatcggtggtaattgtcattacgatagagccaaagcacatgtacactatgttggaacgtgaggaactgtcaactgca', '612_733insggcgggggcgtacgacgctcttggtcatgtcgcccgaacacggcaccaccgtgacttgtatcttaatgctcacgttatgaaatgggattcatacatcagcagtactaggattggtccaacg', '698_773instatgtaatgtatgtatatgaccgctctgatggacgatgtgtcaacgatcaccgcgacctatgatccctcgtcttg', '613_664insacatcgaatcacgactgtgaaccgtcattatatgccacacattacagctat', '689_769del']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['4300_4304instaac']</t>
+          <t>['4272_4312insggcggagctccagatttcgctgaacttaggagttcgtgca', '4296_4350instgacatatacgacctctgtcgttcgggttggggaggacctatttttgtttcggt', '4284_4405del', '4283_4365del', '4294_4409instggacgcattgttcacataggtctagcagtcctccggaattgagaccgactcatgagaactaatctacattatgcgtcggatcttttattgccataaagttaagcattcgcgttc']</t>
         </is>
       </c>
       <c r="E9" t="b">
@@ -826,16 +826,16 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45438.89334797977</v>
+        <v>45441.8335970304</v>
       </c>
     </row>
   </sheetData>
